--- a/xls/guildAppealConfig.xlsx
+++ b/xls/guildAppealConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -33,22 +33,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>上诉足协</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上诉国家足联</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曝光买通裁判</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曝光假球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>需要材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -65,47 +49,61 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>subReputation[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardDonate[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少公会声望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>material[.][funcStrDict]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>succProb[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isProtect[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否免疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上诉足协</t>
+  </si>
+  <si>
+    <t>102038:1</t>
+  </si>
+  <si>
+    <t>上诉国际足联</t>
+  </si>
+  <si>
+    <t>102039:1</t>
+  </si>
+  <si>
+    <t>曝光买通裁判</t>
+  </si>
+  <si>
+    <t>曝光踢假球</t>
+  </si>
+  <si>
     <t>subGuildFunds[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>subReputation[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardDonate[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少公会声望</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102030:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102030:10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102030:2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>material[.][funcStrDict]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>succProb[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isProtect[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否免疫</t>
+    <t>type[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -551,50 +549,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -602,154 +604,170 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3">
-        <v>1000</v>
-      </c>
       <c r="E3" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>50</v>
       </c>
       <c r="G3" s="3">
         <v>50</v>
       </c>
       <c r="H3" s="3">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3">
-        <v>10000</v>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>300</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
-        <v>1000</v>
-      </c>
       <c r="F5" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
         <v>50</v>
       </c>
       <c r="H5" s="3">
+        <v>80</v>
+      </c>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <v>10000</v>
-      </c>
       <c r="F6" s="3">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
         <v>300</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>100</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -757,8 +775,9 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -769,8 +788,9 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -781,8 +801,9 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -793,8 +814,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -805,8 +827,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -817,8 +840,9 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -829,8 +853,9 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -841,8 +866,9 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -853,6 +879,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
